--- a/config_2.9/fish_3d_server.xlsx
+++ b/config_2.9/fish_3d_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_2.9\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="41">
   <si>
     <t>id|行号</t>
   </si>
@@ -602,7 +602,7 @@
   <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -941,8 +941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1148,10 +1148,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:E7"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1251,16 +1251,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="1">
-        <v>100000</v>
+        <v>1000000</v>
       </c>
       <c r="E5" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>17</v>
@@ -1271,13 +1271,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="1">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="E6" s="1">
         <v>3</v>
@@ -1288,15 +1288,66 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="1">
+        <v>200000000</v>
+      </c>
+      <c r="E7" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="E8" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="1">
+        <v>800000000</v>
+      </c>
+      <c r="E9" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
         <v>5</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C10" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="1">
-        <v>5000000</v>
-      </c>
-      <c r="E7" s="1">
+      <c r="D10" s="1">
+        <v>10000000</v>
+      </c>
+      <c r="E10" s="1">
         <v>3</v>
       </c>
     </row>
